--- a/Ex2.xlsx
+++ b/Ex2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repositories\ds700\Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EEA1AE45-932D-4F45-9948-07575CAA89DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92ABDB47-D7C3-41D1-97F2-33491691F42D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="6570" xr2:uid="{2709614B-3645-4729-A317-F19FD1B35660}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="6570" activeTab="1" xr2:uid="{2709614B-3645-4729-A317-F19FD1B35660}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="a" sheetId="1" r:id="rId1"/>
+    <sheet name="b" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Demand</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Lev Est 3</t>
+  </si>
+  <si>
+    <t>AvDev</t>
+  </si>
+  <si>
+    <t>Winning model with alpha .2</t>
+  </si>
+  <si>
+    <t>3 period moving average</t>
   </si>
 </sst>
 </file>
@@ -97,8 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692996F-391B-47D1-B3E1-1F1751D2373C}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,6 +437,11 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -477,16 +494,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>AVERAGE(B5:B10)</f>
-        <v>198.16666666666666</v>
+        <v>198</v>
       </c>
       <c r="H4">
-        <f>AVERAGE(B5:B10)</f>
-        <v>198.16666666666666</v>
+        <v>198</v>
       </c>
       <c r="L4">
-        <f>AVERAGE(B5:B10)</f>
-        <v>198.16666666666666</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -498,27 +512,39 @@
       </c>
       <c r="D5">
         <f>(D4+B$2*F5)</f>
-        <v>198.53333333333333</v>
+        <v>198.4</v>
       </c>
       <c r="E5">
         <f>D4</f>
-        <v>198.16666666666666</v>
+        <v>198</v>
       </c>
       <c r="F5">
         <f>B5-E5</f>
-        <v>1.8333333333333428</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <f>(H4+C$2*J5)</f>
-        <v>198.71666666666667</v>
+        <v>198.6</v>
       </c>
       <c r="I5">
         <f>H4</f>
-        <v>198.16666666666666</v>
+        <v>198</v>
       </c>
       <c r="J5">
         <f>B5-I5</f>
-        <v>1.8333333333333428</v>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f>(L4+D$2*N5)</f>
+        <v>198.8</v>
+      </c>
+      <c r="M5">
+        <f>L4</f>
+        <v>198</v>
+      </c>
+      <c r="N5">
+        <f>B5-M5</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -529,28 +555,40 @@
         <v>209</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D10" si="0">(D5+B$2*F6)</f>
-        <v>200.62666666666667</v>
+        <f t="shared" ref="D6:D11" si="0">(D5+B$2*F6)</f>
+        <v>200.52</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E10" si="1">D5</f>
-        <v>198.53333333333333</v>
+        <f t="shared" ref="E6:E11" si="1">D5</f>
+        <v>198.4</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F10" si="2">B6-E6</f>
-        <v>10.466666666666669</v>
+        <f t="shared" ref="F6:F11" si="2">B6-E6</f>
+        <v>10.599999999999994</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H10" si="3">(H5+C$2*J6)</f>
-        <v>201.80166666666668</v>
+        <f t="shared" ref="H6:H11" si="3">(H5+C$2*J6)</f>
+        <v>201.72</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I10" si="4">H5</f>
-        <v>198.71666666666667</v>
+        <f t="shared" ref="I6:I11" si="4">H5</f>
+        <v>198.6</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J10" si="5">B6-I6</f>
-        <v>10.283333333333331</v>
+        <f t="shared" ref="J6:J11" si="5">B6-I6</f>
+        <v>10.400000000000006</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L10" si="6">(L5+D$2*N6)</f>
+        <v>202.88</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M10" si="7">L5</f>
+        <v>198.8</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="8">B6-M6</f>
+        <v>10.199999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -562,27 +600,39 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>203.50133333333332</v>
+        <v>203.416</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>200.62666666666667</v>
+        <v>200.52</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>14.373333333333335</v>
+        <v>14.47999999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>205.76116666666667</v>
+        <v>205.70400000000001</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>201.80166666666668</v>
+        <v>201.72</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>13.198333333333323</v>
+        <v>13.280000000000001</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>207.72800000000001</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="7"/>
+        <v>202.88</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="8"/>
+        <v>12.120000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -594,27 +644,39 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>198.80106666666666</v>
+        <v>198.7328</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>203.50133333333332</v>
+        <v>203.416</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>-23.501333333333321</v>
+        <v>-23.415999999999997</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>198.03281666666666</v>
+        <v>197.99280000000002</v>
       </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>205.76116666666667</v>
+        <v>205.70400000000001</v>
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>-25.761166666666668</v>
+        <v>-25.704000000000008</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>196.63679999999999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>207.72800000000001</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="8"/>
+        <v>-27.728000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -626,27 +688,39 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>197.04085333333333</v>
+        <v>196.98624000000001</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>198.80106666666666</v>
+        <v>198.7328</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>-8.8010666666666566</v>
+        <v>-8.7327999999999975</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>195.62297166666667</v>
+        <v>195.59496000000001</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>198.03281666666666</v>
+        <v>197.99280000000002</v>
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>-8.0328166666666618</v>
+        <v>-7.9928000000000168</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>193.98208</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>196.63679999999999</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="8"/>
+        <v>-6.6367999999999938</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -658,114 +732,326 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>196.63268266666665</v>
+        <v>196.58899200000002</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>197.04085333333333</v>
+        <v>196.98624000000001</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>-2.040853333333331</v>
+        <v>-1.9862400000000093</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>195.43608016666667</v>
+        <v>195.416472</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>195.62297166666667</v>
+        <v>195.59496000000001</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>-0.62297166666667181</v>
+        <v>-0.59496000000001459</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>194.38924800000001</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>193.98208</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="8"/>
+        <v>1.0179200000000037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>197.2711936</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>196.58899200000002</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>3.4110079999999812</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>196.7915304</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>195.416472</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>4.5835280000000012</v>
+      </c>
+      <c r="L11">
+        <f>(L10+D$2*N11)</f>
+        <v>196.6335488</v>
+      </c>
+      <c r="M11">
+        <f>L10</f>
+        <v>194.38924800000001</v>
+      </c>
+      <c r="N11">
+        <f>B11-M11</f>
+        <v>5.6107519999999909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f>AVEDEV(D5:D11)</f>
+        <v>1.7845530122448932</v>
+      </c>
+      <c r="H13">
+        <f>AVEDEV(H5:H11)</f>
+        <v>2.7889173551020456</v>
+      </c>
+      <c r="L13">
+        <f>AVEDEV(L5:L11)</f>
+        <v>3.7839579428571466</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCB0015-D413-4AA6-9460-4431EC0848EE}">
-  <dimension ref="A3:B11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>197.2711936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
       <c r="B5">
         <v>208</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>(D4+B$2*F5)</f>
+        <v>199.41695487999999</v>
+      </c>
+      <c r="E5">
+        <f>D4</f>
+        <v>197.2711936</v>
+      </c>
+      <c r="F5">
+        <f>B5-E5</f>
+        <v>10.728806399999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6">
         <v>186</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" ref="D6:D11" si="0">(D5+B$2*F6)</f>
+        <v>196.73356390399999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E11" si="1">D5</f>
+        <v>199.41695487999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F11" si="2">B6-E6</f>
+        <v>-13.416954879999992</v>
+      </c>
+      <c r="H6">
+        <f>SUM(B5:B7)/3</f>
+        <v>195.66666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7">
         <v>193</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>195.98685112319998</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>196.73356390399999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-3.7335639039999933</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H10" si="3">SUM(B6:B8)/3</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8">
         <v>197</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>196.18948089855999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>195.98685112319998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.0131488768000168</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>192.66666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9">
         <v>188</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>194.55158471884801</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>196.18948089855999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-8.1894808985599923</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10">
         <v>191</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>193.84126777507839</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>194.55158471884801</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-3.5515847188480052</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>191.66666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>14</v>
       </c>
       <c r="B11">
         <v>196</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>194.27301422006272</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>193.84126777507839</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2.1587322249216072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f>AVEDEV(D5:D11)</f>
+        <v>1.4006973698499305</v>
+      </c>
+      <c r="H13">
+        <f>AVEDEV(H5:H11)</f>
+        <v>1.1466666666666583</v>
       </c>
     </row>
   </sheetData>
